--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/2 REVISION/6 SEGUIMIENTO A INFORMES DE AUDITORIA.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/2 REVISION/6 SEGUIMIENTO A INFORMES DE AUDITORIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\2 REVISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\2 REVISION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CEEA3E-8CCE-4ECB-8362-8D18A9A6E2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ADF7EB-4AE9-4E2A-A5EB-AF47643397D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,13 +324,13 @@
     <t>Entidad XXXXXXX</t>
   </si>
   <si>
-    <t>Del 01 de Enero de 2023 al 31 de Diciembre de 2023</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
     <t>PL-3.18</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -933,10 +933,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1223,7 +1223,7 @@
   <dimension ref="B2:L1042"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1244,13 +1244,13 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" customHeight="1">
       <c r="B2" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
       <c r="B3" s="79"/>
       <c r="K3" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1">
@@ -1307,8 +1307,8 @@
       <c r="J9" s="81"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="82" t="s">
-        <v>85</v>
+      <c r="B10" s="83" t="s">
+        <v>87</v>
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
@@ -1398,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="83"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
       <c r="G17" s="81"/>
